--- a/BrainStation/excel/excel Advanced prep/tasks/Employee Bonus.xlsx
+++ b/BrainStation/excel/excel Advanced prep/tasks/Employee Bonus.xlsx
@@ -1,37 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="123820"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA581C0-1087-459C-AB1A-95BE81A5A7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <webPublishing codePage="1252"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Dick</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Sally</t>
   </si>
   <si>
-    <t>Edgar</t>
-  </si>
-  <si>
     <t>Parts</t>
   </si>
   <si>
@@ -47,9 +49,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Goal</t>
-  </si>
-  <si>
     <t>Commission Rate:</t>
   </si>
   <si>
@@ -59,9 +58,6 @@
     <t>Bonus Rate:</t>
   </si>
   <si>
-    <t>Goal Bonus</t>
-  </si>
-  <si>
     <t>Category Bonus</t>
   </si>
   <si>
@@ -74,22 +70,43 @@
     <t>Honor</t>
   </si>
   <si>
-    <t>Jamie</t>
-  </si>
-  <si>
     <t xml:space="preserve">OGC Bookstores </t>
   </si>
   <si>
-    <t>Category Goal</t>
-  </si>
-  <si>
     <t># of Category Bonuses</t>
+  </si>
+  <si>
+    <t>Mohamed</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Noha</t>
+  </si>
+  <si>
+    <t>Khaled</t>
+  </si>
+  <si>
+    <t>Fady</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Category Target</t>
+  </si>
+  <si>
+    <t>Sales Bonus</t>
+  </si>
+  <si>
+    <t>Categories</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -144,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -167,17 +184,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -185,7 +236,6 @@
     <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -198,6 +248,27 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -209,14 +280,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -254,7 +328,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -326,7 +400,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -496,15 +570,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
@@ -513,310 +588,323 @@
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.7109375" customWidth="1"/>
     <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="10">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="G2" s="5" t="s">
+      <c r="H7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="14">
-        <v>115000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="M7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="12">
+        <v>79270</v>
+      </c>
+      <c r="C8" s="12">
+        <v>145330</v>
+      </c>
+      <c r="D8" s="12">
+        <v>103110</v>
+      </c>
+      <c r="E8" s="12">
+        <v>108170</v>
+      </c>
+      <c r="F8" s="12">
+        <f>SUM(B8:E8)</f>
+        <v>435880</v>
+      </c>
+      <c r="G8" s="12">
+        <v>385000</v>
+      </c>
+      <c r="H8" s="12">
+        <f>$H$2*F8</f>
+        <v>17435.2</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="12">
+        <f>SUM(H8:J8)</f>
+        <v>17435.2</v>
+      </c>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:13" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="11" t="s">
+      <c r="B9" s="12">
+        <v>71790</v>
+      </c>
+      <c r="C9" s="12">
+        <v>134590</v>
+      </c>
+      <c r="D9" s="12">
+        <v>135220</v>
+      </c>
+      <c r="E9" s="12">
+        <v>63900</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" ref="F9:F13" si="0">SUM(B9:E9)</f>
+        <v>405500</v>
+      </c>
+      <c r="G9" s="12">
+        <v>350000</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" ref="H9:H13" si="1">$H$2*F9</f>
+        <v>16220</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="12">
+        <f t="shared" ref="L9:L13" si="2">SUM(H9:J9)</f>
+        <v>16220</v>
+      </c>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="1:13" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <v>79270</v>
-      </c>
-      <c r="C7" s="3">
-        <v>145330</v>
-      </c>
-      <c r="D7" s="3">
-        <v>103110</v>
-      </c>
-      <c r="E7" s="3">
-        <v>108170</v>
-      </c>
-      <c r="F7" s="3">
-        <f>SUM(B7:E7)</f>
-        <v>435880</v>
-      </c>
-      <c r="G7" s="3">
-        <v>385000</v>
-      </c>
-      <c r="H7" s="3">
-        <f>$H$2*F7</f>
-        <v>17435.2</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="3">
-        <f>SUM(H7:J7)</f>
-        <v>17435.2</v>
-      </c>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="3">
-        <v>71790</v>
-      </c>
-      <c r="C8" s="3">
-        <v>134590</v>
-      </c>
-      <c r="D8" s="3">
-        <v>135220</v>
-      </c>
-      <c r="E8" s="3">
-        <v>63900</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" ref="F8:F12" si="0">SUM(B8:E8)</f>
-        <v>405500</v>
-      </c>
-      <c r="G8" s="3">
-        <v>350000</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" ref="H8:H12" si="1">$H$2*F8</f>
-        <v>16220</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="3">
-        <f t="shared" ref="L8:L12" si="2">SUM(H8:J8)</f>
-        <v>16220</v>
-      </c>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="B10" s="12">
         <v>19740</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C10" s="12">
         <v>147760</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="12">
         <v>112500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E10" s="12">
         <v>117980</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F10" s="12">
         <f t="shared" si="0"/>
         <v>397980</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G10" s="12">
         <v>400000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H10" s="12">
         <f t="shared" si="1"/>
         <v>15919.2</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="3">
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="12">
         <f t="shared" si="2"/>
         <v>15919.2</v>
       </c>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:13" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="12">
         <v>87490</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C11" s="12">
         <v>130480</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D11" s="12">
         <v>103910</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E11" s="12">
         <v>35200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F11" s="12">
         <f t="shared" si="0"/>
         <v>357080</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G11" s="12">
         <v>375000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H11" s="12">
         <f t="shared" si="1"/>
         <v>14283.2</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="12">
         <f t="shared" si="2"/>
         <v>14283.2</v>
       </c>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="1:13" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="12">
         <v>132180</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C12" s="12">
         <v>68790</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D12" s="12">
         <v>113000</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E12" s="12">
         <v>110340</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F12" s="12">
         <f t="shared" si="0"/>
         <v>424310</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G12" s="12">
         <v>360000</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H12" s="12">
         <f t="shared" si="1"/>
         <v>16972.400000000001</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="3">
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="12">
         <f t="shared" si="2"/>
         <v>16972.400000000001</v>
       </c>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="1:13" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B13" s="12">
         <v>97490</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C13" s="12">
         <v>37590</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D13" s="12">
         <v>38480</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E13" s="12">
         <v>15100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F13" s="12">
         <f t="shared" si="0"/>
         <v>188660</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G13" s="12">
         <v>200000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H13" s="12">
         <f t="shared" si="1"/>
         <v>7546.4000000000005</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="3">
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="12">
         <f t="shared" si="2"/>
         <v>7546.4000000000005</v>
       </c>
-      <c r="M12" s="4"/>
+      <c r="M13" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:E6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
